--- a/Peaks-dataset-article/redes-ensemble-s/Teste02/content/results/metrics_12_9.xlsx
+++ b/Peaks-dataset-article/redes-ensemble-s/Teste02/content/results/metrics_12_9.xlsx
@@ -518,661 +518,661 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>model_12_9_3</t>
+          <t>model_12_9_24</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.9684136211064004</v>
+        <v>0.983154134845777</v>
       </c>
       <c r="C2" t="n">
-        <v>0.7609137329468194</v>
+        <v>0.8055695183790974</v>
       </c>
       <c r="D2" t="n">
-        <v>0.976647737241369</v>
+        <v>0.7514385916894764</v>
       </c>
       <c r="E2" t="n">
-        <v>0.8026830097159189</v>
+        <v>0.7756996655590713</v>
       </c>
       <c r="F2" t="n">
-        <v>0.8845214926763549</v>
+        <v>0.850534129482778</v>
       </c>
       <c r="G2" t="n">
-        <v>0.2112182611034019</v>
+        <v>0.1126483778543658</v>
       </c>
       <c r="H2" t="n">
-        <v>1.598770968675651</v>
+        <v>1.300157525869023</v>
       </c>
       <c r="I2" t="n">
-        <v>0.1204582084379548</v>
+        <v>0.2744155493346781</v>
       </c>
       <c r="J2" t="n">
-        <v>1.188300567339729</v>
+        <v>0.4216698173524429</v>
       </c>
       <c r="K2" t="n">
-        <v>0.6543793073254568</v>
+        <v>0.3480426450964159</v>
       </c>
       <c r="L2" t="n">
-        <v>3.709964962493961</v>
+        <v>0.520138877522861</v>
       </c>
       <c r="M2" t="n">
-        <v>0.4595848791065715</v>
+        <v>0.3356313123866214</v>
       </c>
       <c r="N2" t="n">
-        <v>1.016846068743253</v>
+        <v>1.008984461415586</v>
       </c>
       <c r="O2" t="n">
-        <v>0.4791503588819914</v>
+        <v>0.3499198322075169</v>
       </c>
       <c r="P2" t="n">
-        <v>141.10972653466</v>
+        <v>142.3669680241601</v>
       </c>
       <c r="Q2" t="n">
-        <v>225.2121584505659</v>
+        <v>226.4693999400659</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>model_12_9_2</t>
+          <t>model_12_9_23</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.9682829728337108</v>
+        <v>0.9832824047949635</v>
       </c>
       <c r="C3" t="n">
-        <v>0.7609117305945063</v>
+        <v>0.8053700091345217</v>
       </c>
       <c r="D3" t="n">
-        <v>0.9777814645248684</v>
+        <v>0.7516759543363526</v>
       </c>
       <c r="E3" t="n">
-        <v>0.8012478602229558</v>
+        <v>0.779404722783447</v>
       </c>
       <c r="F3" t="n">
-        <v>0.8842747436972119</v>
+        <v>0.8520859885267047</v>
       </c>
       <c r="G3" t="n">
-        <v>0.2120919067044572</v>
+        <v>0.1117906361135264</v>
       </c>
       <c r="H3" t="n">
-        <v>1.598784358414789</v>
+        <v>1.301491645106156</v>
       </c>
       <c r="I3" t="n">
-        <v>0.1146100917548255</v>
+        <v>0.274153497387126</v>
       </c>
       <c r="J3" t="n">
-        <v>1.196943456906664</v>
+        <v>0.4147045544295099</v>
       </c>
       <c r="K3" t="n">
-        <v>0.6557775538892293</v>
+        <v>0.3444290233070667</v>
       </c>
       <c r="L3" t="n">
-        <v>3.726052584709669</v>
+        <v>0.5263817281478431</v>
       </c>
       <c r="M3" t="n">
-        <v>0.4605343708177027</v>
+        <v>0.334351067163732</v>
       </c>
       <c r="N3" t="n">
-        <v>1.016915747822021</v>
+        <v>1.00891605077602</v>
       </c>
       <c r="O3" t="n">
-        <v>0.4801402724209843</v>
+        <v>0.3485850842950162</v>
       </c>
       <c r="P3" t="n">
-        <v>141.1014711521258</v>
+        <v>142.3822549549236</v>
       </c>
       <c r="Q3" t="n">
-        <v>225.2039030680316</v>
+        <v>226.4846868708294</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>model_12_9_4</t>
+          <t>model_12_9_22</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.9685204461771668</v>
+        <v>0.9834173977247946</v>
       </c>
       <c r="C4" t="n">
-        <v>0.7609037094631809</v>
+        <v>0.8051426359553631</v>
       </c>
       <c r="D4" t="n">
-        <v>0.975599983563194</v>
+        <v>0.7519253379770487</v>
       </c>
       <c r="E4" t="n">
-        <v>0.8039633161253641</v>
+        <v>0.7834846114416081</v>
       </c>
       <c r="F4" t="n">
-        <v>0.8847249403905512</v>
+        <v>0.8537920282668445</v>
       </c>
       <c r="G4" t="n">
-        <v>0.2105039213633023</v>
+        <v>0.1108879377701605</v>
       </c>
       <c r="H4" t="n">
-        <v>1.598837995756896</v>
+        <v>1.303012090602148</v>
       </c>
       <c r="I4" t="n">
-        <v>0.1258628466206333</v>
+        <v>0.2738781740808177</v>
       </c>
       <c r="J4" t="n">
-        <v>1.18059018806361</v>
+        <v>0.4070346331625928</v>
       </c>
       <c r="K4" t="n">
-        <v>0.6532264350085366</v>
+        <v>0.3404563800424664</v>
       </c>
       <c r="L4" t="n">
-        <v>3.695495523535823</v>
+        <v>0.5333171080421715</v>
       </c>
       <c r="M4" t="n">
-        <v>0.4588070633319656</v>
+        <v>0.3329984050564814</v>
       </c>
       <c r="N4" t="n">
-        <v>1.016789095372178</v>
+        <v>1.008844054546776</v>
       </c>
       <c r="O4" t="n">
-        <v>0.4783394298795601</v>
+        <v>0.3471748365614634</v>
       </c>
       <c r="P4" t="n">
-        <v>141.1165019944578</v>
+        <v>142.3984703145334</v>
       </c>
       <c r="Q4" t="n">
-        <v>225.2189339103637</v>
+        <v>226.5009022304392</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>model_12_9_1</t>
+          <t>model_12_9_21</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.9681231070458957</v>
+        <v>0.9835580892038093</v>
       </c>
       <c r="C5" t="n">
-        <v>0.7608934131219309</v>
+        <v>0.8048830066251375</v>
       </c>
       <c r="D5" t="n">
-        <v>0.9790034599414763</v>
+        <v>0.7521821668561841</v>
       </c>
       <c r="E5" t="n">
-        <v>0.7996382849135325</v>
+        <v>0.7879735936028118</v>
       </c>
       <c r="F5" t="n">
-        <v>0.8839758188445723</v>
+        <v>0.8556649569907452</v>
       </c>
       <c r="G5" t="n">
-        <v>0.2131609299636915</v>
+        <v>0.1099471332021656</v>
       </c>
       <c r="H5" t="n">
-        <v>1.598906847438244</v>
+        <v>1.30474823312885</v>
       </c>
       <c r="I5" t="n">
-        <v>0.1083066606858353</v>
+        <v>0.2735946311188108</v>
       </c>
       <c r="J5" t="n">
-        <v>1.206636789703855</v>
+        <v>0.3985956431239416</v>
       </c>
       <c r="K5" t="n">
-        <v>0.6574714642327747</v>
+        <v>0.3360951230887037</v>
       </c>
       <c r="L5" t="n">
-        <v>3.7439360741825</v>
+        <v>0.5410257859928945</v>
       </c>
       <c r="M5" t="n">
-        <v>0.4616935455079392</v>
+        <v>0.3315827697606822</v>
       </c>
       <c r="N5" t="n">
-        <v>1.017001009575522</v>
+        <v>1.008769019091302</v>
       </c>
       <c r="O5" t="n">
-        <v>0.4813487955776066</v>
+        <v>0.3456989347403528</v>
       </c>
       <c r="P5" t="n">
-        <v>141.0914157176271</v>
+        <v>142.4155112719429</v>
       </c>
       <c r="Q5" t="n">
-        <v>225.1938476335329</v>
+        <v>226.5179431878487</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>model_12_9_5</t>
+          <t>model_12_9_20</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.9686078294552338</v>
+        <v>0.9837029230073453</v>
       </c>
       <c r="C6" t="n">
-        <v>0.7608850467148948</v>
+        <v>0.804585965575035</v>
       </c>
       <c r="D6" t="n">
-        <v>0.9746345788913512</v>
+        <v>0.7524442062639627</v>
       </c>
       <c r="E6" t="n">
-        <v>0.8051063543250607</v>
+        <v>0.7929053635271177</v>
       </c>
       <c r="F6" t="n">
-        <v>0.8848929126545122</v>
+        <v>0.8577178175436003</v>
       </c>
       <c r="G6" t="n">
-        <v>0.2099195889805057</v>
+        <v>0.1089786288910217</v>
       </c>
       <c r="H6" t="n">
-        <v>1.598962793640619</v>
+        <v>1.306734547998633</v>
       </c>
       <c r="I6" t="n">
-        <v>0.1308427031077667</v>
+        <v>0.2733053356544761</v>
       </c>
       <c r="J6" t="n">
-        <v>1.173706478053464</v>
+        <v>0.3893242413296031</v>
       </c>
       <c r="K6" t="n">
-        <v>0.6522745905806155</v>
+        <v>0.3313148811889487</v>
       </c>
       <c r="L6" t="n">
-        <v>3.682480777621835</v>
+        <v>0.5495936220271642</v>
       </c>
       <c r="M6" t="n">
-        <v>0.4581698254801441</v>
+        <v>0.3301191131864705</v>
       </c>
       <c r="N6" t="n">
-        <v>1.016742490957209</v>
+        <v>1.008691774396083</v>
       </c>
       <c r="O6" t="n">
-        <v>0.4776750634931222</v>
+        <v>0.3441729672755902</v>
       </c>
       <c r="P6" t="n">
-        <v>141.1220614624198</v>
+        <v>142.4332069623925</v>
       </c>
       <c r="Q6" t="n">
-        <v>225.2244933783257</v>
+        <v>226.5356388782984</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>model_12_9_6</t>
+          <t>model_12_9_19</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.9686794280860483</v>
+        <v>0.9838497818969223</v>
       </c>
       <c r="C7" t="n">
-        <v>0.7608603649439835</v>
+        <v>0.8042453579561818</v>
       </c>
       <c r="D7" t="n">
-        <v>0.9737472836738746</v>
+        <v>0.7527085072305454</v>
       </c>
       <c r="E7" t="n">
-        <v>0.8061281461471941</v>
+        <v>0.7983175598142507</v>
       </c>
       <c r="F7" t="n">
-        <v>0.8850320681286051</v>
+        <v>0.8599652316497208</v>
       </c>
       <c r="G7" t="n">
-        <v>0.2094408086065678</v>
+        <v>0.1079965828201969</v>
       </c>
       <c r="H7" t="n">
-        <v>1.599127840756352</v>
+        <v>1.309012192714258</v>
       </c>
       <c r="I7" t="n">
-        <v>0.1354196468222806</v>
+        <v>0.2730135433950603</v>
       </c>
       <c r="J7" t="n">
-        <v>1.167552949154629</v>
+        <v>0.3791496696975132</v>
       </c>
       <c r="K7" t="n">
-        <v>0.6514860415695662</v>
+        <v>0.3260816065462868</v>
       </c>
       <c r="L7" t="n">
-        <v>3.670768906243323</v>
+        <v>0.559115756996552</v>
       </c>
       <c r="M7" t="n">
-        <v>0.4576470349587854</v>
+        <v>0.3286283353884702</v>
       </c>
       <c r="N7" t="n">
-        <v>1.016704305020774</v>
+        <v>1.008613449654975</v>
       </c>
       <c r="O7" t="n">
-        <v>0.4771300166969438</v>
+        <v>0.3426187239803936</v>
       </c>
       <c r="P7" t="n">
-        <v>141.1266282320501</v>
+        <v>142.4513113858245</v>
       </c>
       <c r="Q7" t="n">
-        <v>225.2290601479559</v>
+        <v>226.5537433017303</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>model_12_9_0</t>
+          <t>model_12_9_18</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.9679274203558629</v>
+        <v>0.9839954542369678</v>
       </c>
       <c r="C8" t="n">
-        <v>0.760853276771478</v>
+        <v>0.8038540607299418</v>
       </c>
       <c r="D8" t="n">
-        <v>0.9803150949028501</v>
+        <v>0.7529654594508541</v>
       </c>
       <c r="E8" t="n">
-        <v>0.7978316660893032</v>
+        <v>0.8042462555173078</v>
       </c>
       <c r="F8" t="n">
-        <v>0.8836127586851472</v>
+        <v>0.8624193571231535</v>
       </c>
       <c r="G8" t="n">
-        <v>0.2144694877609946</v>
+        <v>0.1070224712115539</v>
       </c>
       <c r="H8" t="n">
-        <v>1.599175239398535</v>
+        <v>1.311628799067883</v>
       </c>
       <c r="I8" t="n">
-        <v>0.1015408410646392</v>
+        <v>0.2727298642625351</v>
       </c>
       <c r="J8" t="n">
-        <v>1.217516776119153</v>
+        <v>0.3680041132698892</v>
       </c>
       <c r="K8" t="n">
-        <v>0.6595288085918962</v>
+        <v>0.3203669887662122</v>
       </c>
       <c r="L8" t="n">
-        <v>3.763816687141826</v>
+        <v>0.5696944807518642</v>
       </c>
       <c r="M8" t="n">
-        <v>0.463108505386151</v>
+        <v>0.3271428911218368</v>
       </c>
       <c r="N8" t="n">
-        <v>1.017105375810206</v>
+        <v>1.008535757740284</v>
       </c>
       <c r="O8" t="n">
-        <v>0.4828239932272047</v>
+        <v>0.341070041276036</v>
       </c>
       <c r="P8" t="n">
-        <v>141.0791755978656</v>
+        <v>142.4694329104932</v>
       </c>
       <c r="Q8" t="n">
-        <v>225.1816075137714</v>
+        <v>226.571864826399</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>model_12_9_7</t>
+          <t>model_12_9_17</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.9687379752417208</v>
+        <v>0.9841359207372925</v>
       </c>
       <c r="C9" t="n">
-        <v>0.7608318204141242</v>
+        <v>0.8034035323036236</v>
       </c>
       <c r="D9" t="n">
-        <v>0.9729338116835405</v>
+        <v>0.7532103125928402</v>
       </c>
       <c r="E9" t="n">
-        <v>0.8070408272554909</v>
+        <v>0.8107304514433084</v>
       </c>
       <c r="F9" t="n">
-        <v>0.8851467695987469</v>
+        <v>0.8650948739184505</v>
       </c>
       <c r="G9" t="n">
-        <v>0.2090493035070013</v>
+        <v>0.1060831710770933</v>
       </c>
       <c r="H9" t="n">
-        <v>1.599318718158957</v>
+        <v>1.314641484729165</v>
       </c>
       <c r="I9" t="n">
-        <v>0.1396157874525449</v>
+        <v>0.2724595426952365</v>
       </c>
       <c r="J9" t="n">
-        <v>1.16205651685436</v>
+        <v>0.3558142531049052</v>
       </c>
       <c r="K9" t="n">
-        <v>0.6508360654803336</v>
+        <v>0.3141368444582664</v>
       </c>
       <c r="L9" t="n">
-        <v>3.660238310384309</v>
+        <v>0.581454699775534</v>
       </c>
       <c r="M9" t="n">
-        <v>0.4572190979246178</v>
+        <v>0.3257041158430352</v>
       </c>
       <c r="N9" t="n">
-        <v>1.016673079871082</v>
+        <v>1.008460842273444</v>
       </c>
       <c r="O9" t="n">
-        <v>0.4766838614972799</v>
+        <v>0.3395700143549404</v>
       </c>
       <c r="P9" t="n">
-        <v>141.1303703057809</v>
+        <v>142.4870637194614</v>
       </c>
       <c r="Q9" t="n">
-        <v>225.2328022216867</v>
+        <v>226.5894956353672</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>model_12_9_8</t>
+          <t>model_12_9_16</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.968786033765487</v>
+        <v>0.9842654388518282</v>
       </c>
       <c r="C10" t="n">
-        <v>0.7608009291784174</v>
+        <v>0.8028836216421696</v>
       </c>
       <c r="D10" t="n">
-        <v>0.9721895259011326</v>
+        <v>0.7534285450201702</v>
       </c>
       <c r="E10" t="n">
-        <v>0.8078576411392621</v>
+        <v>0.8178064478396867</v>
       </c>
       <c r="F10" t="n">
-        <v>0.8852420041856203</v>
+        <v>0.8680029199983772</v>
       </c>
       <c r="G10" t="n">
-        <v>0.2087279359372872</v>
+        <v>0.1052170828488171</v>
       </c>
       <c r="H10" t="n">
-        <v>1.599525287994369</v>
+        <v>1.318118129716277</v>
       </c>
       <c r="I10" t="n">
-        <v>0.1434550441807418</v>
+        <v>0.2722186107990285</v>
       </c>
       <c r="J10" t="n">
-        <v>1.157137424990558</v>
+        <v>0.3425118471344264</v>
       </c>
       <c r="K10" t="n">
-        <v>0.6502964019149146</v>
+        <v>0.3073652380292032</v>
       </c>
       <c r="L10" t="n">
-        <v>3.650761796247694</v>
+        <v>0.5945217036201654</v>
       </c>
       <c r="M10" t="n">
-        <v>0.4568675255884217</v>
+        <v>0.3243718280751538</v>
       </c>
       <c r="N10" t="n">
-        <v>1.016647448658407</v>
+        <v>1.008391765945692</v>
       </c>
       <c r="O10" t="n">
-        <v>0.4763173219988768</v>
+        <v>0.3381810083385644</v>
       </c>
       <c r="P10" t="n">
-        <v>141.1334472338924</v>
+        <v>142.503459214734</v>
       </c>
       <c r="Q10" t="n">
-        <v>225.2358791497983</v>
+        <v>226.6058911306398</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>model_12_9_9</t>
+          <t>model_12_9_15</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.9688254440506592</v>
+        <v>0.9843768603444278</v>
       </c>
       <c r="C11" t="n">
-        <v>0.76076890135678</v>
+        <v>0.802282360081738</v>
       </c>
       <c r="D11" t="n">
-        <v>0.9715099696500342</v>
+        <v>0.7536089714890416</v>
       </c>
       <c r="E11" t="n">
-        <v>0.8085883241423575</v>
+        <v>0.8255130765111069</v>
       </c>
       <c r="F11" t="n">
-        <v>0.8853210063571546</v>
+        <v>0.8711566105818486</v>
       </c>
       <c r="G11" t="n">
-        <v>0.2084643991788729</v>
+        <v>0.1044720068147542</v>
       </c>
       <c r="H11" t="n">
-        <v>1.599739458185133</v>
+        <v>1.322138768539438</v>
       </c>
       <c r="I11" t="n">
-        <v>0.1469604059260343</v>
+        <v>0.2720194172520238</v>
       </c>
       <c r="J11" t="n">
-        <v>1.152737038455807</v>
+        <v>0.3280238941298947</v>
       </c>
       <c r="K11" t="n">
-        <v>0.6498487221909206</v>
+        <v>0.3000216296944793</v>
       </c>
       <c r="L11" t="n">
-        <v>3.642239571090042</v>
+        <v>0.6090419236904391</v>
       </c>
       <c r="M11" t="n">
-        <v>0.4565790174535761</v>
+        <v>0.3232212969696678</v>
       </c>
       <c r="N11" t="n">
-        <v>1.016626429839648</v>
+        <v>1.008332341149639</v>
       </c>
       <c r="O11" t="n">
-        <v>0.4760165314754367</v>
+        <v>0.3369814967419901</v>
       </c>
       <c r="P11" t="n">
-        <v>141.1359739993316</v>
+        <v>142.5176722416672</v>
       </c>
       <c r="Q11" t="n">
-        <v>225.2384059152375</v>
+        <v>226.620104157573</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>model_12_9_10</t>
+          <t>model_12_9_14</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.9688578109924179</v>
+        <v>0.9844604584789821</v>
       </c>
       <c r="C12" t="n">
-        <v>0.7607366303499646</v>
+        <v>0.8015855197416843</v>
       </c>
       <c r="D12" t="n">
-        <v>0.9708901601289643</v>
+        <v>0.7537309265288941</v>
       </c>
       <c r="E12" t="n">
-        <v>0.8092426597158089</v>
+        <v>0.8338818989739034</v>
       </c>
       <c r="F12" t="n">
-        <v>0.885386587946167</v>
+        <v>0.8745637355912816</v>
       </c>
       <c r="G12" t="n">
-        <v>0.208247961290297</v>
+        <v>0.1039129857040557</v>
       </c>
       <c r="H12" t="n">
-        <v>1.599955254556301</v>
+        <v>1.326798543102031</v>
       </c>
       <c r="I12" t="n">
-        <v>0.150157575521656</v>
+        <v>0.2718847770458763</v>
       </c>
       <c r="J12" t="n">
-        <v>1.148796438449474</v>
+        <v>0.3122910605247278</v>
       </c>
       <c r="K12" t="n">
-        <v>0.6494770925622929</v>
+        <v>0.29208788002739</v>
       </c>
       <c r="L12" t="n">
-        <v>3.634571082371048</v>
+        <v>0.6251737498354419</v>
       </c>
       <c r="M12" t="n">
-        <v>0.4563419346173404</v>
+        <v>0.3223553717623698</v>
       </c>
       <c r="N12" t="n">
-        <v>1.016609167470711</v>
+        <v>1.008287755477876</v>
       </c>
       <c r="O12" t="n">
-        <v>0.4757693555320333</v>
+        <v>0.3360787073059053</v>
       </c>
       <c r="P12" t="n">
-        <v>141.1380515754111</v>
+        <v>142.5284028119439</v>
       </c>
       <c r="Q12" t="n">
-        <v>225.240483491317</v>
+        <v>226.6308347278498</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>model_12_9_11</t>
+          <t>model_12_9_13</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.9688844317421947</v>
+        <v>0.9845038469100686</v>
       </c>
       <c r="C13" t="n">
-        <v>0.7607048036814552</v>
+        <v>0.8007760749651327</v>
       </c>
       <c r="D13" t="n">
-        <v>0.9703260808987673</v>
+        <v>0.7537713609306933</v>
       </c>
       <c r="E13" t="n">
-        <v>0.809828654860151</v>
+        <v>0.8429424096936201</v>
       </c>
       <c r="F13" t="n">
-        <v>0.8854412504700158</v>
+        <v>0.878230733313165</v>
       </c>
       <c r="G13" t="n">
-        <v>0.2080699482139613</v>
+        <v>0.1036228470655952</v>
       </c>
       <c r="H13" t="n">
-        <v>1.600168079635172</v>
+        <v>1.332211304049983</v>
       </c>
       <c r="I13" t="n">
-        <v>0.153067271005512</v>
+        <v>0.2718401368555218</v>
       </c>
       <c r="J13" t="n">
-        <v>1.145267404474866</v>
+        <v>0.2952578986713337</v>
       </c>
       <c r="K13" t="n">
-        <v>0.649167337740189</v>
+        <v>0.2835489969882697</v>
       </c>
       <c r="L13" t="n">
-        <v>3.6276748155853</v>
+        <v>0.6431037056338562</v>
       </c>
       <c r="M13" t="n">
-        <v>0.4561468493960703</v>
+        <v>0.3219050280216126</v>
       </c>
       <c r="N13" t="n">
-        <v>1.016594969737496</v>
+        <v>1.008264614981297</v>
       </c>
       <c r="O13" t="n">
-        <v>0.4755659651290117</v>
+        <v>0.3356091914997639</v>
       </c>
       <c r="P13" t="n">
-        <v>141.1397619326465</v>
+        <v>142.5339948838981</v>
       </c>
       <c r="Q13" t="n">
-        <v>225.2421938485523</v>
+        <v>226.636426799804</v>
       </c>
     </row>
     <row r="14">
@@ -1182,712 +1182,712 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.9689063296483088</v>
+        <v>0.9844911526612973</v>
       </c>
       <c r="C14" t="n">
-        <v>0.7606738973153689</v>
+        <v>0.7998337919340112</v>
       </c>
       <c r="D14" t="n">
-        <v>0.9698129009404195</v>
+        <v>0.7537015591943174</v>
       </c>
       <c r="E14" t="n">
-        <v>0.8103538181270928</v>
+        <v>0.8527164571955276</v>
       </c>
       <c r="F14" t="n">
-        <v>0.8854868067545278</v>
+        <v>0.8821596228024013</v>
       </c>
       <c r="G14" t="n">
-        <v>0.2079235168149461</v>
+        <v>0.1037077335655809</v>
       </c>
       <c r="H14" t="n">
-        <v>1.600374750647502</v>
+        <v>1.338512355017907</v>
       </c>
       <c r="I14" t="n">
-        <v>0.1557144122709121</v>
+        <v>0.2719171990268473</v>
       </c>
       <c r="J14" t="n">
-        <v>1.142104717839749</v>
+        <v>0.276883334784944</v>
       </c>
       <c r="K14" t="n">
-        <v>0.6489091850276689</v>
+        <v>0.2744002790542465</v>
       </c>
       <c r="L14" t="n">
-        <v>3.621469278155457</v>
+        <v>0.6630138462666076</v>
       </c>
       <c r="M14" t="n">
-        <v>0.4559863120916526</v>
+        <v>0.3220368512539844</v>
       </c>
       <c r="N14" t="n">
-        <v>1.016583290854235</v>
+        <v>1.008271385247308</v>
       </c>
       <c r="O14" t="n">
-        <v>0.4753985934191869</v>
+        <v>0.3357466267200495</v>
       </c>
       <c r="P14" t="n">
-        <v>141.1411699490446</v>
+        <v>142.5323571803916</v>
       </c>
       <c r="Q14" t="n">
-        <v>225.2436018649504</v>
+        <v>226.6347890962974</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>model_12_9_13</t>
+          <t>model_12_9_11</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.968924392433165</v>
+        <v>0.9844019269209733</v>
       </c>
       <c r="C15" t="n">
-        <v>0.7606442323235282</v>
+        <v>0.7987345514014424</v>
       </c>
       <c r="D15" t="n">
-        <v>0.9693467130674571</v>
+        <v>0.7534817817549391</v>
       </c>
       <c r="E15" t="n">
-        <v>0.8108247482777625</v>
+        <v>0.8632153736354811</v>
       </c>
       <c r="F15" t="n">
-        <v>0.8855249104319135</v>
+        <v>0.8863455927329436</v>
       </c>
       <c r="G15" t="n">
-        <v>0.2078027308894416</v>
+        <v>0.1043043865019741</v>
       </c>
       <c r="H15" t="n">
-        <v>1.600573120584536</v>
+        <v>1.345862981520731</v>
       </c>
       <c r="I15" t="n">
-        <v>0.1581191537965184</v>
+        <v>0.2721598366396943</v>
       </c>
       <c r="J15" t="n">
-        <v>1.139268638876592</v>
+        <v>0.2571460651608559</v>
       </c>
       <c r="K15" t="n">
-        <v>0.6486932638264686</v>
+        <v>0.2646529297638807</v>
       </c>
       <c r="L15" t="n">
-        <v>3.615885626433755</v>
+        <v>0.6851386648470509</v>
       </c>
       <c r="M15" t="n">
-        <v>0.4558538481678548</v>
+        <v>0.3229618963623636</v>
       </c>
       <c r="N15" t="n">
-        <v>1.016573657368979</v>
+        <v>1.008318972308814</v>
       </c>
       <c r="O15" t="n">
-        <v>0.4752604902319149</v>
+        <v>0.3367110529137997</v>
       </c>
       <c r="P15" t="n">
-        <v>141.1423321169815</v>
+        <v>142.5208837225465</v>
       </c>
       <c r="Q15" t="n">
-        <v>225.2447640328873</v>
+        <v>226.6233156384523</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>model_12_9_14</t>
+          <t>model_12_9_10</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.9689393139441789</v>
+        <v>0.9842103329232448</v>
       </c>
       <c r="C16" t="n">
-        <v>0.7606161030188937</v>
+        <v>0.7974494527259989</v>
       </c>
       <c r="D16" t="n">
-        <v>0.9689238008585608</v>
+        <v>0.753067074997801</v>
       </c>
       <c r="E16" t="n">
-        <v>0.81124701364564</v>
+        <v>0.8744358914180457</v>
       </c>
       <c r="F16" t="n">
-        <v>0.8855566952164762</v>
+        <v>0.8907766156701789</v>
       </c>
       <c r="G16" t="n">
-        <v>0.2077029506765842</v>
+        <v>0.105585576446994</v>
       </c>
       <c r="H16" t="n">
-        <v>1.60076122137415</v>
+        <v>1.354456442280757</v>
       </c>
       <c r="I16" t="n">
-        <v>0.1603006660352568</v>
+        <v>0.2726176791637867</v>
       </c>
       <c r="J16" t="n">
-        <v>1.136725633454229</v>
+        <v>0.2360522326627153</v>
       </c>
       <c r="K16" t="n">
-        <v>0.6485131497447429</v>
+        <v>0.254334955913251</v>
       </c>
       <c r="L16" t="n">
-        <v>3.610861028551881</v>
+        <v>0.7097044334731373</v>
       </c>
       <c r="M16" t="n">
-        <v>0.4557443918213193</v>
+        <v>0.3249393427195205</v>
       </c>
       <c r="N16" t="n">
-        <v>1.016565699229771</v>
+        <v>1.008421155774269</v>
       </c>
       <c r="O16" t="n">
-        <v>0.4751463741021014</v>
+        <v>0.3387726832562591</v>
       </c>
       <c r="P16" t="n">
-        <v>141.1432926835316</v>
+        <v>142.49646700743</v>
       </c>
       <c r="Q16" t="n">
-        <v>225.2457245994375</v>
+        <v>226.5988989233358</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>model_12_9_15</t>
+          <t>model_12_9_9</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.9689516296032217</v>
+        <v>0.9838834569364542</v>
       </c>
       <c r="C17" t="n">
-        <v>0.7605895345001992</v>
+        <v>0.7959440346308052</v>
       </c>
       <c r="D17" t="n">
-        <v>0.968540266469431</v>
+        <v>0.7523944382970753</v>
       </c>
       <c r="E17" t="n">
-        <v>0.8116257375580149</v>
+        <v>0.8863544655693431</v>
       </c>
       <c r="F17" t="n">
-        <v>0.8855833607649392</v>
+        <v>0.8954282771265023</v>
       </c>
       <c r="G17" t="n">
-        <v>0.2076205958078569</v>
+        <v>0.1077713976757881</v>
       </c>
       <c r="H17" t="n">
-        <v>1.600938885180997</v>
+        <v>1.364523180015131</v>
       </c>
       <c r="I17" t="n">
-        <v>0.1622790552760098</v>
+        <v>0.2733602802416729</v>
       </c>
       <c r="J17" t="n">
-        <v>1.134444847398794</v>
+        <v>0.2136461002866503</v>
       </c>
       <c r="K17" t="n">
-        <v>0.6483620447163091</v>
+        <v>0.2435032084932585</v>
       </c>
       <c r="L17" t="n">
-        <v>3.606342818463312</v>
+        <v>0.7369849373927244</v>
       </c>
       <c r="M17" t="n">
-        <v>0.4556540308258634</v>
+        <v>0.3282855428979292</v>
       </c>
       <c r="N17" t="n">
-        <v>1.016559130878282</v>
+        <v>1.008595489633891</v>
       </c>
       <c r="O17" t="n">
-        <v>0.475052166251996</v>
+        <v>0.342261338103852</v>
       </c>
       <c r="P17" t="n">
-        <v>141.1440858470351</v>
+        <v>142.4554859667914</v>
       </c>
       <c r="Q17" t="n">
-        <v>225.246517762941</v>
+        <v>226.5579178826973</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>model_12_9_16</t>
+          <t>model_12_9_8</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.9689618546131933</v>
+        <v>0.9833798552587288</v>
       </c>
       <c r="C18" t="n">
-        <v>0.760564644046331</v>
+        <v>0.7941769769416626</v>
       </c>
       <c r="D18" t="n">
-        <v>0.9681929472849735</v>
+        <v>0.7513937183283605</v>
       </c>
       <c r="E18" t="n">
-        <v>0.8119656387264895</v>
+        <v>0.8989206472194915</v>
       </c>
       <c r="F18" t="n">
-        <v>0.8856058461193754</v>
+        <v>0.9002636010877377</v>
       </c>
       <c r="G18" t="n">
-        <v>0.2075522211190944</v>
+        <v>0.11113898441361</v>
       </c>
       <c r="H18" t="n">
-        <v>1.601105327760624</v>
+        <v>1.37633950291898</v>
       </c>
       <c r="I18" t="n">
-        <v>0.1640706352675644</v>
+        <v>0.2744650902031693</v>
       </c>
       <c r="J18" t="n">
-        <v>1.132397863250312</v>
+        <v>0.1900225085767094</v>
       </c>
       <c r="K18" t="n">
-        <v>0.6482346274938149</v>
+        <v>0.2322437889646209</v>
       </c>
       <c r="L18" t="n">
-        <v>3.602275225770128</v>
+        <v>0.7672663571877228</v>
       </c>
       <c r="M18" t="n">
-        <v>0.4555789954761901</v>
+        <v>0.3333751406653022</v>
       </c>
       <c r="N18" t="n">
-        <v>1.01655367753963</v>
+        <v>1.008864077195345</v>
       </c>
       <c r="O18" t="n">
-        <v>0.4749739364921425</v>
+        <v>0.3475676105851018</v>
       </c>
       <c r="P18" t="n">
-        <v>141.1447446058613</v>
+        <v>142.3939474981475</v>
       </c>
       <c r="Q18" t="n">
-        <v>225.2471765217671</v>
+        <v>226.4963794140534</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>model_12_9_17</t>
+          <t>model_12_9_7</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.9689702621555475</v>
+        <v>0.9826472139439354</v>
       </c>
       <c r="C19" t="n">
-        <v>0.7605414359780438</v>
+        <v>0.7920987549440324</v>
       </c>
       <c r="D19" t="n">
-        <v>0.9678782738321141</v>
+        <v>0.7499707921270693</v>
       </c>
       <c r="E19" t="n">
-        <v>0.8122703912847525</v>
+        <v>0.9120466134861258</v>
       </c>
       <c r="F19" t="n">
-        <v>0.8856246131642349</v>
+        <v>0.9052247834462338</v>
       </c>
       <c r="G19" t="n">
-        <v>0.2074959998446587</v>
+        <v>0.1160381602591365</v>
       </c>
       <c r="H19" t="n">
-        <v>1.601260520220124</v>
+        <v>1.390236582986466</v>
       </c>
       <c r="I19" t="n">
-        <v>0.165693818458256</v>
+        <v>0.2760360222229228</v>
       </c>
       <c r="J19" t="n">
-        <v>1.130562554302204</v>
+        <v>0.1653465587524631</v>
       </c>
       <c r="K19" t="n">
-        <v>0.6481282807276474</v>
+        <v>0.2206912985875103</v>
       </c>
       <c r="L19" t="n">
-        <v>3.598620453465029</v>
+        <v>0.8008667416404246</v>
       </c>
       <c r="M19" t="n">
-        <v>0.4555172881951449</v>
+        <v>0.3406437439013618</v>
       </c>
       <c r="N19" t="n">
-        <v>1.016549193517041</v>
+        <v>1.009254819229901</v>
       </c>
       <c r="O19" t="n">
-        <v>0.4749096022043915</v>
+        <v>0.3551456533090034</v>
       </c>
       <c r="P19" t="n">
-        <v>141.1452864347085</v>
+        <v>142.3076723484452</v>
       </c>
       <c r="Q19" t="n">
-        <v>225.2477183506144</v>
+        <v>226.4101042643511</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>model_12_9_18</t>
+          <t>model_12_9_6</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.9689773159806694</v>
+        <v>0.9816197631459807</v>
       </c>
       <c r="C20" t="n">
-        <v>0.7605199116692647</v>
+        <v>0.7896498363019955</v>
       </c>
       <c r="D20" t="n">
-        <v>0.9675936226911758</v>
+        <v>0.7480130141181829</v>
       </c>
       <c r="E20" t="n">
-        <v>0.812544418397261</v>
+        <v>0.9255966465372172</v>
       </c>
       <c r="F20" t="n">
-        <v>0.8856406844222166</v>
+        <v>0.9102303637436862</v>
       </c>
       <c r="G20" t="n">
-        <v>0.2074488308835886</v>
+        <v>0.1229087284760363</v>
       </c>
       <c r="H20" t="n">
-        <v>1.60140445337204</v>
+        <v>1.406612513222</v>
       </c>
       <c r="I20" t="n">
-        <v>0.1671621372598066</v>
+        <v>0.2781974387172836</v>
       </c>
       <c r="J20" t="n">
-        <v>1.128912282965755</v>
+        <v>0.1398733913761656</v>
       </c>
       <c r="K20" t="n">
-        <v>0.6480372101127807</v>
+        <v>0.2090354242334579</v>
       </c>
       <c r="L20" t="n">
-        <v>3.595327589571183</v>
+        <v>0.8381333500420698</v>
       </c>
       <c r="M20" t="n">
-        <v>0.4554655100922447</v>
+        <v>0.3505834115813757</v>
       </c>
       <c r="N20" t="n">
-        <v>1.016545431476976</v>
+        <v>1.00980279298881</v>
       </c>
       <c r="O20" t="n">
-        <v>0.4748556198004554</v>
+        <v>0.3655084732201042</v>
       </c>
       <c r="P20" t="n">
-        <v>141.1457411357462</v>
+        <v>142.1926264879432</v>
       </c>
       <c r="Q20" t="n">
-        <v>225.248173051652</v>
+        <v>226.295058403849</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>model_12_9_19</t>
+          <t>model_12_9_5</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.9689831283454388</v>
+        <v>0.9802146713944433</v>
       </c>
       <c r="C21" t="n">
-        <v>0.7605000424281174</v>
+        <v>0.7867585230066108</v>
       </c>
       <c r="D21" t="n">
-        <v>0.9673364094849201</v>
+        <v>0.7453744418565234</v>
       </c>
       <c r="E21" t="n">
-        <v>0.812789895518521</v>
+        <v>0.9393697095667556</v>
       </c>
       <c r="F21" t="n">
-        <v>0.8856541008051311</v>
+        <v>0.9151646051114269</v>
       </c>
       <c r="G21" t="n">
-        <v>0.2074099635736127</v>
+        <v>0.1323045834884192</v>
       </c>
       <c r="H21" t="n">
-        <v>1.601537319079081</v>
+        <v>1.425946738541511</v>
       </c>
       <c r="I21" t="n">
-        <v>0.1684889226909399</v>
+        <v>0.2811104623502121</v>
       </c>
       <c r="J21" t="n">
-        <v>1.127433948018307</v>
+        <v>0.113980942367898</v>
       </c>
       <c r="K21" t="n">
-        <v>0.6479611838152304</v>
+        <v>0.1975456680019522</v>
       </c>
       <c r="L21" t="n">
-        <v>3.592368762704131</v>
+        <v>0.879444956388488</v>
       </c>
       <c r="M21" t="n">
-        <v>0.4554228404171366</v>
+        <v>0.3637369701974481</v>
       </c>
       <c r="N21" t="n">
-        <v>1.016542331549099</v>
+        <v>1.010552175256297</v>
       </c>
       <c r="O21" t="n">
-        <v>0.4748111335889395</v>
+        <v>0.3792220060580827</v>
       </c>
       <c r="P21" t="n">
-        <v>141.1461158879328</v>
+        <v>142.0452971276042</v>
       </c>
       <c r="Q21" t="n">
-        <v>225.2485478038386</v>
+        <v>226.14772904351</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>model_12_9_20</t>
+          <t>model_12_9_4</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.9689880118054889</v>
+        <v>0.9783281619157351</v>
       </c>
       <c r="C22" t="n">
-        <v>0.7604817360114191</v>
+        <v>0.7833383930201178</v>
       </c>
       <c r="D22" t="n">
-        <v>0.9671036934561482</v>
+        <v>0.7418800936963387</v>
       </c>
       <c r="E22" t="n">
-        <v>0.8130108291746148</v>
+        <v>0.9530787552748139</v>
       </c>
       <c r="F22" t="n">
-        <v>0.8856655363052726</v>
+        <v>0.9198701027247516</v>
       </c>
       <c r="G22" t="n">
-        <v>0.2073773078537711</v>
+        <v>0.1449196810591177</v>
       </c>
       <c r="H22" t="n">
-        <v>1.601659734171836</v>
+        <v>1.44881716350944</v>
       </c>
       <c r="I22" t="n">
-        <v>0.1696893440886602</v>
+        <v>0.2849682755017444</v>
       </c>
       <c r="J22" t="n">
-        <v>1.126103420989171</v>
+        <v>0.08820884169670773</v>
       </c>
       <c r="K22" t="n">
-        <v>0.6478963825389156</v>
+        <v>0.1865885589966048</v>
       </c>
       <c r="L22" t="n">
-        <v>3.589704114755825</v>
+        <v>0.9251950520566852</v>
       </c>
       <c r="M22" t="n">
-        <v>0.4553869869174691</v>
+        <v>0.3806831767482216</v>
       </c>
       <c r="N22" t="n">
-        <v>1.016539727037073</v>
+        <v>1.011558313644941</v>
       </c>
       <c r="O22" t="n">
-        <v>0.4747737537315642</v>
+        <v>0.3968896477052063</v>
       </c>
       <c r="P22" t="n">
-        <v>141.1464308032849</v>
+        <v>141.8631512275284</v>
       </c>
       <c r="Q22" t="n">
-        <v>225.2488627191908</v>
+        <v>225.9655831434343</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>model_12_9_21</t>
+          <t>model_12_9_3</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.9689921298983902</v>
+        <v>0.9758298178158378</v>
       </c>
       <c r="C23" t="n">
-        <v>0.7604648816173598</v>
+        <v>0.7792846280260085</v>
       </c>
       <c r="D23" t="n">
-        <v>0.9668935273956167</v>
+        <v>0.7373105840961418</v>
       </c>
       <c r="E23" t="n">
-        <v>0.8132094680559511</v>
+        <v>0.9663223389807607</v>
       </c>
       <c r="F23" t="n">
-        <v>0.8856754327335117</v>
+        <v>0.9241328483980455</v>
       </c>
       <c r="G23" t="n">
-        <v>0.2073497701475781</v>
+        <v>0.1616261195589487</v>
       </c>
       <c r="H23" t="n">
-        <v>1.601772439582518</v>
+        <v>1.47592470869092</v>
       </c>
       <c r="I23" t="n">
-        <v>0.1707734457617083</v>
+        <v>0.2900130831235356</v>
       </c>
       <c r="J23" t="n">
-        <v>1.124907159607686</v>
+        <v>0.06331177885327693</v>
       </c>
       <c r="K23" t="n">
-        <v>0.6478403026846972</v>
+        <v>0.1766624315511046</v>
       </c>
       <c r="L23" t="n">
-        <v>3.587303471227982</v>
+        <v>0.9758353655751654</v>
       </c>
       <c r="M23" t="n">
-        <v>0.4553567504139783</v>
+        <v>0.4020275109478811</v>
       </c>
       <c r="N23" t="n">
-        <v>1.016537530720859</v>
+        <v>1.012890763831553</v>
       </c>
       <c r="O23" t="n">
-        <v>0.4747422299975216</v>
+        <v>0.4191426544006083</v>
       </c>
       <c r="P23" t="n">
-        <v>141.1466964016284</v>
+        <v>141.6449390300438</v>
       </c>
       <c r="Q23" t="n">
-        <v>225.2491283175343</v>
+        <v>225.7473709459497</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>model_12_9_22</t>
+          <t>model_12_9_2</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.9689955786172041</v>
+        <v>0.972555639232112</v>
       </c>
       <c r="C24" t="n">
-        <v>0.7604494530636356</v>
+        <v>0.7744698095463121</v>
       </c>
       <c r="D24" t="n">
-        <v>0.9667037867601944</v>
+        <v>0.7313882211420903</v>
       </c>
       <c r="E24" t="n">
-        <v>0.8133878625214757</v>
+        <v>0.9785446715062724</v>
       </c>
       <c r="F24" t="n">
-        <v>0.8856839347070472</v>
+        <v>0.9276626366819302</v>
       </c>
       <c r="G24" t="n">
-        <v>0.2073267085489894</v>
+        <v>0.1835205668245291</v>
       </c>
       <c r="H24" t="n">
-        <v>1.601875610392313</v>
+        <v>1.50812142203485</v>
       </c>
       <c r="I24" t="n">
-        <v>0.1717521867619742</v>
+        <v>0.2965514612830489</v>
       </c>
       <c r="J24" t="n">
-        <v>1.123832816013209</v>
+        <v>0.04033460079199908</v>
       </c>
       <c r="K24" t="n">
-        <v>0.6477921247537379</v>
+        <v>0.1684430511219652</v>
       </c>
       <c r="L24" t="n">
-        <v>3.585144989696966</v>
+        <v>1.03179366736708</v>
       </c>
       <c r="M24" t="n">
-        <v>0.4553314271483898</v>
+        <v>0.4283930051069101</v>
       </c>
       <c r="N24" t="n">
-        <v>1.016535691404158</v>
+        <v>1.01463699240954</v>
       </c>
       <c r="O24" t="n">
-        <v>0.4747158286680906</v>
+        <v>0.446630582230084</v>
       </c>
       <c r="P24" t="n">
-        <v>141.1469188555152</v>
+        <v>141.3908570739609</v>
       </c>
       <c r="Q24" t="n">
-        <v>225.2493507714211</v>
+        <v>225.4932889898668</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>model_12_9_23</t>
+          <t>model_12_9_1</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.9689984869587718</v>
+        <v>0.9682993682978155</v>
       </c>
       <c r="C25" t="n">
-        <v>0.7604353763734193</v>
+        <v>0.7687379511448362</v>
       </c>
       <c r="D25" t="n">
-        <v>0.9665322977666051</v>
+        <v>0.7237681304640367</v>
       </c>
       <c r="E25" t="n">
-        <v>0.8135484067084755</v>
+        <v>0.9889829115696963</v>
       </c>
       <c r="F25" t="n">
-        <v>0.8856911256383849</v>
+        <v>0.9300698057789579</v>
       </c>
       <c r="G25" t="n">
-        <v>0.2073072604555346</v>
+        <v>0.211982270160495</v>
       </c>
       <c r="H25" t="n">
-        <v>1.601969741284607</v>
+        <v>1.546450385558301</v>
       </c>
       <c r="I25" t="n">
-        <v>0.1726367801372759</v>
+        <v>0.3049641564943096</v>
       </c>
       <c r="J25" t="n">
-        <v>1.122865972011482</v>
+        <v>0.02071139874909698</v>
       </c>
       <c r="K25" t="n">
-        <v>0.647751376074379</v>
+        <v>0.1628377748349792</v>
       </c>
       <c r="L25" t="n">
-        <v>3.5832007549812</v>
+        <v>1.093556485608626</v>
       </c>
       <c r="M25" t="n">
-        <v>0.4553100706722119</v>
+        <v>0.4604153235509164</v>
       </c>
       <c r="N25" t="n">
-        <v>1.016534140288655</v>
+        <v>1.016907003574498</v>
       </c>
       <c r="O25" t="n">
-        <v>0.4746935630025078</v>
+        <v>0.4800161570655891</v>
       </c>
       <c r="P25" t="n">
-        <v>141.1471064724972</v>
+        <v>141.1025052782517</v>
       </c>
       <c r="Q25" t="n">
-        <v>225.249538388403</v>
+        <v>225.2049371941575</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>model_12_9_24</t>
+          <t>model_12_9_0</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.9690008394516287</v>
+        <v>0.9628006366763925</v>
       </c>
       <c r="C26" t="n">
-        <v>0.7604224736577658</v>
+        <v>0.7618967784816697</v>
       </c>
       <c r="D26" t="n">
-        <v>0.9663776303338438</v>
+        <v>0.7140131420980727</v>
       </c>
       <c r="E26" t="n">
-        <v>0.8136919202766908</v>
+        <v>0.9965910201510408</v>
       </c>
       <c r="F26" t="n">
-        <v>0.8856969895774818</v>
+        <v>0.9308284414008627</v>
       </c>
       <c r="G26" t="n">
-        <v>0.2072915293249685</v>
+        <v>0.2487523138322821</v>
       </c>
       <c r="H26" t="n">
-        <v>1.602056021803593</v>
+        <v>1.592197338657599</v>
       </c>
       <c r="I26" t="n">
-        <v>0.1734346026886361</v>
+        <v>0.3157338110009946</v>
       </c>
       <c r="J26" t="n">
-        <v>1.122001691372062</v>
+        <v>0.0064086570082548</v>
       </c>
       <c r="K26" t="n">
-        <v>0.6477181470303491</v>
+        <v>0.1610712341016438</v>
       </c>
       <c r="L26" t="n">
-        <v>3.581456344630527</v>
+        <v>1.161632018089114</v>
       </c>
       <c r="M26" t="n">
-        <v>0.4552927951603984</v>
+        <v>0.4987507532147516</v>
       </c>
       <c r="N26" t="n">
-        <v>1.016532885625798</v>
+        <v>1.019839660439257</v>
       </c>
       <c r="O26" t="n">
-        <v>0.4746755520363912</v>
+        <v>0.5199836053354931</v>
       </c>
       <c r="P26" t="n">
-        <v>141.1472582445811</v>
+        <v>140.7825952022968</v>
       </c>
       <c r="Q26" t="n">
-        <v>225.2496901604869</v>
+        <v>224.8850271182026</v>
       </c>
     </row>
   </sheetData>
